--- a/Development/python20191105.xlsx
+++ b/Development/python20191105.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\雄輔\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66389ABA-F76C-474B-958F-E4B6D790798E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="python" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
     <sheet name="ffmpy" sheetId="4" r:id="rId4"/>
     <sheet name="opencv" sheetId="5" r:id="rId5"/>
     <sheet name="numpy" sheetId="6" r:id="rId6"/>
+    <sheet name="piplist" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="243">
   <si>
     <t>https://www.python.org/downloads/release/python-368/</t>
   </si>
@@ -88,11 +90,707 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>C:\Users\masho&gt;pip list</t>
+  </si>
+  <si>
+    <t>Package                            Version</t>
+  </si>
+  <si>
+    <t>---------------------------------- ---------</t>
+  </si>
+  <si>
+    <t>-pencv-python                      4.1.1.26</t>
+  </si>
+  <si>
+    <t>alabaster                          0.7.12</t>
+  </si>
+  <si>
+    <t>anaconda-client                    1.7.2</t>
+  </si>
+  <si>
+    <t>anaconda-navigator                 1.9.7</t>
+  </si>
+  <si>
+    <t>anaconda-project                   0.8.3</t>
+  </si>
+  <si>
+    <t>asn1crypto                         1.0.1</t>
+  </si>
+  <si>
+    <t>astroid                            2.3.1</t>
+  </si>
+  <si>
+    <t>astropy                            3.2.1</t>
+  </si>
+  <si>
+    <t>atomicwrites                       1.3.0</t>
+  </si>
+  <si>
+    <t>attrs                              19.2.0</t>
+  </si>
+  <si>
+    <t>Babel                              2.7.0</t>
+  </si>
+  <si>
+    <t>backcall                           0.1.0</t>
+  </si>
+  <si>
+    <t>backports.functools-lru-cache      1.5</t>
+  </si>
+  <si>
+    <t>backports.os                       0.1.1</t>
+  </si>
+  <si>
+    <t>backports.shutil-get-terminal-size 1.0.0</t>
+  </si>
+  <si>
+    <t>backports.tempfile                 1.0</t>
+  </si>
+  <si>
+    <t>backports.weakref                  1.0.post1</t>
+  </si>
+  <si>
+    <t>beautifulsoup4                     4.8.0</t>
+  </si>
+  <si>
+    <t>bitarray                           1.0.1</t>
+  </si>
+  <si>
+    <t>bkcharts                           0.2</t>
+  </si>
+  <si>
+    <t>bleach                             3.1.0</t>
+  </si>
+  <si>
+    <t>bokeh                              1.3.4</t>
+  </si>
+  <si>
+    <t>boto                               2.49.0</t>
+  </si>
+  <si>
+    <t>Bottleneck                         1.2.1</t>
+  </si>
+  <si>
+    <t>certifi                            2019.9.11</t>
+  </si>
+  <si>
+    <t>cffi                               1.12.3</t>
+  </si>
+  <si>
+    <t>chardet                            3.0.4</t>
+  </si>
+  <si>
+    <t>Click                              7.0</t>
+  </si>
+  <si>
+    <t>cloudpickle                        1.2.2</t>
+  </si>
+  <si>
+    <t>clyent                             1.2.2</t>
+  </si>
+  <si>
+    <t>colorama                           0.4.1</t>
+  </si>
+  <si>
+    <t>comtypes                           1.1.7</t>
+  </si>
+  <si>
+    <t>conda                              4.7.12</t>
+  </si>
+  <si>
+    <t>conda-build                        3.18.9</t>
+  </si>
+  <si>
+    <t>conda-package-handling             1.6.0</t>
+  </si>
+  <si>
+    <t>conda-verify                       3.4.2</t>
+  </si>
+  <si>
+    <t>contextlib2                        0.6.0</t>
+  </si>
+  <si>
+    <t>cryptography                       2.7</t>
+  </si>
+  <si>
+    <t>cycler                             0.10.0</t>
+  </si>
+  <si>
+    <t>Cython                             0.29.13</t>
+  </si>
+  <si>
+    <t>cytoolz                            0.10.0</t>
+  </si>
+  <si>
+    <t>dask                               2.5.2</t>
+  </si>
+  <si>
+    <t>decorator                          4.4.0</t>
+  </si>
+  <si>
+    <t>defusedxml                         0.6.0</t>
+  </si>
+  <si>
+    <t>distributed                        2.5.2</t>
+  </si>
+  <si>
+    <t>Django                             2.2.7</t>
+  </si>
+  <si>
+    <t>docutils                           0.15.2</t>
+  </si>
+  <si>
+    <t>entrypoints                        0.3</t>
+  </si>
+  <si>
+    <t>et-xmlfile                         1.0.1</t>
+  </si>
+  <si>
+    <t>fastcache                          1.1.0</t>
+  </si>
+  <si>
+    <t>ffmpeg                             1.4</t>
+  </si>
+  <si>
+    <t>ffmpeg-python                      0.2.0</t>
+  </si>
+  <si>
+    <t>filelock                           3.0.12</t>
+  </si>
+  <si>
+    <t>Flask                              1.1.1</t>
+  </si>
+  <si>
+    <t>fsspec                             0.5.2</t>
+  </si>
+  <si>
+    <t>future                             0.17.1</t>
+  </si>
+  <si>
+    <t>gevent                             1.4.0</t>
+  </si>
+  <si>
+    <t>glob2                              0.7</t>
+  </si>
+  <si>
+    <t>greenlet                           0.4.15</t>
+  </si>
+  <si>
+    <t>h5py                               2.9.0</t>
+  </si>
+  <si>
+    <t>HeapDict                           1.0.1</t>
+  </si>
+  <si>
+    <t>html5lib                           1.0.1</t>
+  </si>
+  <si>
+    <t>idna                               2.8</t>
+  </si>
+  <si>
+    <t>imageio                            2.6.0</t>
+  </si>
+  <si>
+    <t>imageio-ffmpeg                     0.3.0</t>
+  </si>
+  <si>
+    <t>imagesize                          1.1.0</t>
+  </si>
+  <si>
+    <t>importlib-metadata                 0.23</t>
+  </si>
+  <si>
+    <t>ipykernel                          5.1.2</t>
+  </si>
+  <si>
+    <t>ipython                            7.8.0</t>
+  </si>
+  <si>
+    <t>ipython-genutils                   0.2.0</t>
+  </si>
+  <si>
+    <t>ipywidgets                         7.5.1</t>
+  </si>
+  <si>
+    <t>isort                              4.3.21</t>
+  </si>
+  <si>
+    <t>itsdangerous                       1.1.0</t>
+  </si>
+  <si>
+    <t>jdcal                              1.4.1</t>
+  </si>
+  <si>
+    <t>jedi                               0.15.1</t>
+  </si>
+  <si>
+    <t>Jinja2                             2.10.3</t>
+  </si>
+  <si>
+    <t>joblib                             0.13.2</t>
+  </si>
+  <si>
+    <t>json5                              0.8.5</t>
+  </si>
+  <si>
+    <t>jsonschema                         3.0.2</t>
+  </si>
+  <si>
+    <t>jupyter                            1.0.0</t>
+  </si>
+  <si>
+    <t>jupyter-client                     5.3.3</t>
+  </si>
+  <si>
+    <t>jupyter-console                    6.0.0</t>
+  </si>
+  <si>
+    <t>jupyter-core                       4.5.0</t>
+  </si>
+  <si>
+    <t>jupyterlab                         1.1.4</t>
+  </si>
+  <si>
+    <t>jupyterlab-server                  1.0.6</t>
+  </si>
+  <si>
+    <t>keyring                            18.0.0</t>
+  </si>
+  <si>
+    <t>kiwisolver                         1.1.0</t>
+  </si>
+  <si>
+    <t>lazy-object-proxy                  1.4.2</t>
+  </si>
+  <si>
+    <t>libarchive-c                       2.8</t>
+  </si>
+  <si>
+    <t>llvmlite                           0.29.0</t>
+  </si>
+  <si>
+    <t>locket                             0.2.0</t>
+  </si>
+  <si>
+    <t>lxml                               4.4.1</t>
+  </si>
+  <si>
+    <t>MarkupSafe                         1.1.1</t>
+  </si>
+  <si>
+    <t>matplotlib                         3.1.1</t>
+  </si>
+  <si>
+    <t>mccabe                             0.6.1</t>
+  </si>
+  <si>
+    <t>menuinst                           1.4.16</t>
+  </si>
+  <si>
+    <t>mistune                            0.8.4</t>
+  </si>
+  <si>
+    <t>mkl-fft                            1.0.14</t>
+  </si>
+  <si>
+    <t>mkl-random                         1.1.0</t>
+  </si>
+  <si>
+    <t>mkl-service                        2.3.0</t>
+  </si>
+  <si>
+    <t>mock                               3.0.5</t>
+  </si>
+  <si>
+    <t>more-itertools                     7.2.0</t>
+  </si>
+  <si>
+    <t>moviepy                            1.0.1</t>
+  </si>
+  <si>
+    <t>mpmath                             1.1.0</t>
+  </si>
+  <si>
+    <t>msgpack                            0.6.1</t>
+  </si>
+  <si>
+    <t>multipledispatch                   0.6.0</t>
+  </si>
+  <si>
+    <t>navigator-updater                  0.2.1</t>
+  </si>
+  <si>
+    <t>nbconvert                          5.6.0</t>
+  </si>
+  <si>
+    <t>nbformat                           4.4.0</t>
+  </si>
+  <si>
+    <t>networkx                           2.3</t>
+  </si>
+  <si>
+    <t>nltk                               3.4.5</t>
+  </si>
+  <si>
+    <t>nose                               1.3.7</t>
+  </si>
+  <si>
+    <t>notebook                           6.0.1</t>
+  </si>
+  <si>
+    <t>numba                              0.45.1</t>
+  </si>
+  <si>
+    <t>numexpr                            2.7.0</t>
+  </si>
+  <si>
+    <t>numpy                              1.16.5</t>
+  </si>
+  <si>
+    <t>numpydoc                           0.9.1</t>
+  </si>
+  <si>
+    <t>olefile                            0.46</t>
+  </si>
+  <si>
+    <t>opencv-contrib-python              4.1.1.26</t>
+  </si>
+  <si>
+    <t>opencv-python                      4.1.1.26</t>
+  </si>
+  <si>
+    <t>openpyxl                           3.0.0</t>
+  </si>
+  <si>
+    <t>packaging                          19.2</t>
+  </si>
+  <si>
+    <t>pandas                             0.25.1</t>
+  </si>
+  <si>
+    <t>pandocfilters                      1.4.2</t>
+  </si>
+  <si>
+    <t>parso                              0.5.1</t>
+  </si>
+  <si>
+    <t>partd                              1.0.0</t>
+  </si>
+  <si>
+    <t>path.py                            12.0.1</t>
+  </si>
+  <si>
+    <t>pathlib2                           2.3.5</t>
+  </si>
+  <si>
+    <t>patsy                              0.5.1</t>
+  </si>
+  <si>
+    <t>pep8                               1.7.1</t>
+  </si>
+  <si>
+    <t>pickleshare                        0.7.5</t>
+  </si>
+  <si>
+    <t>Pillow                             6.2.0</t>
+  </si>
+  <si>
+    <t>pip                                19.3.1</t>
+  </si>
+  <si>
+    <t>pkginfo                            1.5.0.1</t>
+  </si>
+  <si>
+    <t>pluggy                             0.13.0</t>
+  </si>
+  <si>
+    <t>ply                                3.11</t>
+  </si>
+  <si>
+    <t>proglog                            0.1.9</t>
+  </si>
+  <si>
+    <t>prometheus-client                  0.7.1</t>
+  </si>
+  <si>
+    <t>prompt-toolkit                     2.0.10</t>
+  </si>
+  <si>
+    <t>psutil                             5.6.3</t>
+  </si>
+  <si>
+    <t>py                                 1.8.0</t>
+  </si>
+  <si>
+    <t>pycodestyle                        2.5.0</t>
+  </si>
+  <si>
+    <t>pycosat                            0.6.3</t>
+  </si>
+  <si>
+    <t>pycparser                          2.19</t>
+  </si>
+  <si>
+    <t>pycrypto                           2.6.1</t>
+  </si>
+  <si>
+    <t>pycurl                             7.43.0.3</t>
+  </si>
+  <si>
+    <t>pydub                              0.23.1</t>
+  </si>
+  <si>
+    <t>pyflakes                           2.1.1</t>
+  </si>
+  <si>
+    <t>Pygments                           2.4.2</t>
+  </si>
+  <si>
+    <t>pylint                             2.4.2</t>
+  </si>
+  <si>
+    <t>PyMySQL                            0.9.3</t>
+  </si>
+  <si>
+    <t>pyodbc                             4.0.27</t>
+  </si>
+  <si>
+    <t>pyOpenSSL                          19.0.0</t>
+  </si>
+  <si>
+    <t>pyparsing                          2.4.2</t>
+  </si>
+  <si>
+    <t>pyreadline                         2.1</t>
+  </si>
+  <si>
+    <t>pyrsistent                         0.15.4</t>
+  </si>
+  <si>
+    <t>PySocks                            1.7.1</t>
+  </si>
+  <si>
+    <t>pytest                             5.2.1</t>
+  </si>
+  <si>
+    <t>pytest-arraydiff                   0.3</t>
+  </si>
+  <si>
+    <t>pytest-astropy                     0.5.0</t>
+  </si>
+  <si>
+    <t>pytest-doctestplus                 0.4.0</t>
+  </si>
+  <si>
+    <t>pytest-openfiles                   0.4.0</t>
+  </si>
+  <si>
+    <t>pytest-remotedata                  0.3.2</t>
+  </si>
+  <si>
+    <t>python-dateutil                    2.8.0</t>
+  </si>
+  <si>
+    <t>pytz                               2019.3</t>
+  </si>
+  <si>
+    <t>PyWavelets                         1.0.3</t>
+  </si>
+  <si>
+    <t>pywin32                            223</t>
+  </si>
+  <si>
+    <t>pywinpty                           0.5.5</t>
+  </si>
+  <si>
+    <t>PyYAML                             5.1.2</t>
+  </si>
+  <si>
+    <t>pyzmq                              18.1.0</t>
+  </si>
+  <si>
+    <t>QtAwesome                          0.6.0</t>
+  </si>
+  <si>
+    <t>qtconsole                          4.5.5</t>
+  </si>
+  <si>
+    <t>QtPy                               1.9.0</t>
+  </si>
+  <si>
+    <t>requests                           2.22.0</t>
+  </si>
+  <si>
+    <t>rope                               0.14.0</t>
+  </si>
+  <si>
+    <t>ruamel-yaml                        0.15.46</t>
+  </si>
+  <si>
+    <t>scikit-image                       0.15.0</t>
+  </si>
+  <si>
+    <t>scikit-learn                       0.21.3</t>
+  </si>
+  <si>
+    <t>scipy                              1.3.1</t>
+  </si>
+  <si>
+    <t>seaborn                            0.9.0</t>
+  </si>
+  <si>
+    <t>Send2Trash                         1.5.0</t>
+  </si>
+  <si>
+    <t>setuptools                         41.4.0</t>
+  </si>
+  <si>
+    <t>simplegeneric                      0.8.1</t>
+  </si>
+  <si>
+    <t>singledispatch                     3.4.0.3</t>
+  </si>
+  <si>
+    <t>six                                1.12.0</t>
+  </si>
+  <si>
+    <t>snowballstemmer                    2.0.0</t>
+  </si>
+  <si>
+    <t>sortedcollections                  1.1.2</t>
+  </si>
+  <si>
+    <t>sortedcontainers                   2.1.0</t>
+  </si>
+  <si>
+    <t>soupsieve                          1.9.3</t>
+  </si>
+  <si>
+    <t>Sphinx                             2.2.0</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-applehelp            1.0.1</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-devhelp              1.0.1</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-htmlhelp             1.0.2</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-jsmath               1.0.1</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-qthelp               1.0.2</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-serializinghtml      1.1.3</t>
+  </si>
+  <si>
+    <t>sphinxcontrib-websupport           1.1.2</t>
+  </si>
+  <si>
+    <t>spyder                             3.3.6</t>
+  </si>
+  <si>
+    <t>spyder-kernels                     0.5.2</t>
+  </si>
+  <si>
+    <t>SQLAlchemy                         1.3.9</t>
+  </si>
+  <si>
+    <t>sqlparse                           0.3.0</t>
+  </si>
+  <si>
+    <t>statsmodels                        0.10.1</t>
+  </si>
+  <si>
+    <t>sympy                              1.4</t>
+  </si>
+  <si>
+    <t>tables                             3.5.2</t>
+  </si>
+  <si>
+    <t>tblib                              1.4.0</t>
+  </si>
+  <si>
+    <t>terminado                          0.8.2</t>
+  </si>
+  <si>
+    <t>testpath                           0.4.2</t>
+  </si>
+  <si>
+    <t>toolz                              0.10.0</t>
+  </si>
+  <si>
+    <t>tornado                            6.0.3</t>
+  </si>
+  <si>
+    <t>tqdm                               4.36.1</t>
+  </si>
+  <si>
+    <t>traitlets                          4.3.3</t>
+  </si>
+  <si>
+    <t>typed-ast                          1.4.0</t>
+  </si>
+  <si>
+    <t>unicodecsv                         0.14.1</t>
+  </si>
+  <si>
+    <t>urllib3                            1.24.2</t>
+  </si>
+  <si>
+    <t>wcwidth                            0.1.7</t>
+  </si>
+  <si>
+    <t>webencodings                       0.5.1</t>
+  </si>
+  <si>
+    <t>Werkzeug                           0.16.0</t>
+  </si>
+  <si>
+    <t>wheel                              0.33.6</t>
+  </si>
+  <si>
+    <t>widgetsnbextension                 3.5.1</t>
+  </si>
+  <si>
+    <t>win-inet-pton                      1.1.0</t>
+  </si>
+  <si>
+    <t>win-unicode-console                0.5</t>
+  </si>
+  <si>
+    <t>wincertstore                       0.2</t>
+  </si>
+  <si>
+    <t>wrapt                              1.11.2</t>
+  </si>
+  <si>
+    <t>xlrd                               1.2.0</t>
+  </si>
+  <si>
+    <t>XlsxWriter                         1.2.1</t>
+  </si>
+  <si>
+    <t>xlwings                            0.15.10</t>
+  </si>
+  <si>
+    <t>xlwt                               1.3.0</t>
+  </si>
+  <si>
+    <t>zict                               1.0.0</t>
+  </si>
+  <si>
+    <t>zipp                               0.6.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,7 +884,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -224,7 +928,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -267,7 +977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -310,7 +1026,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -353,7 +1075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -391,7 +1119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -434,7 +1168,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -722,26 +1462,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>2</v>
       </c>
@@ -749,8 +1489,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B48" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B48" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -758,16 +1498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="Q5"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="17:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q5" t="s">
         <v>5</v>
       </c>
@@ -780,21 +1520,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -802,23 +1542,23 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -831,21 +1571,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="17:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="17:17" x14ac:dyDescent="0.2">
       <c r="Q22" t="s">
         <v>7</v>
       </c>
@@ -853,7 +1593,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -861,26 +1601,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B12:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,10 +1628,1187 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1"/>
-    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BC6333-BEE3-4558-9CAA-55737A4D9F54}">
+  <dimension ref="B5:B236"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="C60:D60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>